--- a/app/delivery/shipping_fee/Topship.xlsx
+++ b/app/delivery/shipping_fee/Topship.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="78">
   <si>
     <t xml:space="preserve">States</t>
   </si>
@@ -110,6 +110,9 @@
     <t xml:space="preserve">Standard delivery takes 3-5 working days</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyo state</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ogun state</t>
   </si>
   <si>
@@ -146,7 +149,7 @@
     <t xml:space="preserve">Imo state </t>
   </si>
   <si>
-    <t xml:space="preserve">Akwa Ibom</t>
+    <t xml:space="preserve">Akwa Ibom state</t>
   </si>
   <si>
     <t xml:space="preserve">Bayelsa state </t>
@@ -241,6 +244,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akwa Ibom</t>
   </si>
   <si>
     <t xml:space="preserve">Cross River</t>
@@ -740,11 +746,11 @@
   </sheetPr>
   <dimension ref="A1:Q662"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A627" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A660" activeCellId="0" sqref="A660:A661"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
@@ -1192,7 +1198,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>11</v>
@@ -1206,7 +1212,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>12</v>
@@ -1220,7 +1226,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>13</v>
@@ -1234,7 +1240,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>14</v>
@@ -1248,7 +1254,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>15</v>
@@ -1262,7 +1268,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>16</v>
@@ -1276,7 +1282,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>17</v>
@@ -1290,7 +1296,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>18</v>
@@ -1304,7 +1310,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>19</v>
@@ -1318,7 +1324,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>20</v>
@@ -1332,7 +1338,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -1346,7 +1352,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>22</v>
@@ -1360,7 +1366,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>23</v>
@@ -1374,7 +1380,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>24</v>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>25</v>
@@ -1402,7 +1408,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>26</v>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>9</v>
@@ -1430,7 +1436,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>11</v>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>12</v>
@@ -1458,7 +1464,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>14</v>
@@ -1486,7 +1492,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>15</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>16</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>17</v>
@@ -1528,7 +1534,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>18</v>
@@ -1542,7 +1548,7 @@
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>19</v>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>20</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>21</v>
@@ -1584,7 +1590,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>22</v>
@@ -1598,7 +1604,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>23</v>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>24</v>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>25</v>
@@ -1640,7 +1646,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>26</v>
@@ -1654,7 +1660,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>9</v>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>11</v>
@@ -1682,7 +1688,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>12</v>
@@ -1696,7 +1702,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>13</v>
@@ -1710,7 +1716,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>14</v>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>15</v>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>16</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>17</v>
@@ -1766,7 +1772,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>18</v>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>19</v>
@@ -1794,7 +1800,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>20</v>
@@ -1808,7 +1814,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>21</v>
@@ -1822,7 +1828,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>22</v>
@@ -1836,7 +1842,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>23</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>24</v>
@@ -1864,7 +1870,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>25</v>
@@ -1878,7 +1884,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>26</v>
@@ -1892,7 +1898,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>9</v>
@@ -1906,7 +1912,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>11</v>
@@ -1920,7 +1926,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>12</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>13</v>
@@ -1948,7 +1954,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>14</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>15</v>
@@ -1976,7 +1982,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>16</v>
@@ -1990,7 +1996,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>17</v>
@@ -2004,7 +2010,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>18</v>
@@ -2018,7 +2024,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>19</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>20</v>
@@ -2046,7 +2052,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>21</v>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>22</v>
@@ -2074,7 +2080,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>23</v>
@@ -2088,7 +2094,7 @@
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>24</v>
@@ -2102,7 +2108,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>25</v>
@@ -2116,7 +2122,7 @@
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>26</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>9</v>
@@ -2144,7 +2150,7 @@
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>11</v>
@@ -2158,7 +2164,7 @@
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>12</v>
@@ -2172,7 +2178,7 @@
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>13</v>
@@ -2186,7 +2192,7 @@
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>14</v>
@@ -2200,7 +2206,7 @@
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>15</v>
@@ -2214,7 +2220,7 @@
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>16</v>
@@ -2228,7 +2234,7 @@
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>17</v>
@@ -2242,7 +2248,7 @@
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>18</v>
@@ -2256,7 +2262,7 @@
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>19</v>
@@ -2270,7 +2276,7 @@
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>20</v>
@@ -2284,7 +2290,7 @@
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>21</v>
@@ -2298,7 +2304,7 @@
     </row>
     <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>22</v>
@@ -2312,7 +2318,7 @@
     </row>
     <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>23</v>
@@ -2326,7 +2332,7 @@
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>24</v>
@@ -2340,7 +2346,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>25</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>26</v>
@@ -2368,7 +2374,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>9</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>11</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>12</v>
@@ -2410,7 +2416,7 @@
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>13</v>
@@ -2424,7 +2430,7 @@
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>14</v>
@@ -2438,7 +2444,7 @@
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>15</v>
@@ -2452,7 +2458,7 @@
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>16</v>
@@ -2466,7 +2472,7 @@
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>17</v>
@@ -2480,7 +2486,7 @@
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>18</v>
@@ -2494,7 +2500,7 @@
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>19</v>
@@ -2508,7 +2514,7 @@
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>20</v>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>21</v>
@@ -2536,7 +2542,7 @@
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>22</v>
@@ -2550,7 +2556,7 @@
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>23</v>
@@ -2564,7 +2570,7 @@
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>24</v>
@@ -2578,7 +2584,7 @@
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>25</v>
@@ -2592,7 +2598,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>26</v>
@@ -2611,7 +2617,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>9</v>
@@ -2625,7 +2631,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>11</v>
@@ -2639,7 +2645,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>12</v>
@@ -2653,7 +2659,7 @@
     </row>
     <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>13</v>
@@ -2667,7 +2673,7 @@
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>14</v>
@@ -2681,7 +2687,7 @@
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>15</v>
@@ -2695,7 +2701,7 @@
     </row>
     <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>16</v>
@@ -2709,7 +2715,7 @@
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>17</v>
@@ -2723,7 +2729,7 @@
     </row>
     <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>18</v>
@@ -2737,7 +2743,7 @@
     </row>
     <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>19</v>
@@ -2751,7 +2757,7 @@
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>20</v>
@@ -2765,7 +2771,7 @@
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>21</v>
@@ -2779,7 +2785,7 @@
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>22</v>
@@ -2793,7 +2799,7 @@
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>23</v>
@@ -2807,7 +2813,7 @@
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>24</v>
@@ -2821,7 +2827,7 @@
     </row>
     <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>25</v>
@@ -2835,7 +2841,7 @@
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>26</v>
@@ -2854,7 +2860,7 @@
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>9</v>
@@ -2868,7 +2874,7 @@
     </row>
     <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>11</v>
@@ -2882,7 +2888,7 @@
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>12</v>
@@ -2896,7 +2902,7 @@
     </row>
     <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>13</v>
@@ -2910,7 +2916,7 @@
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>14</v>
@@ -2924,7 +2930,7 @@
     </row>
     <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>15</v>
@@ -2938,7 +2944,7 @@
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>16</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>17</v>
@@ -2966,7 +2972,7 @@
     </row>
     <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>18</v>
@@ -2980,7 +2986,7 @@
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>19</v>
@@ -2994,7 +3000,7 @@
     </row>
     <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>20</v>
@@ -3008,7 +3014,7 @@
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>21</v>
@@ -3022,7 +3028,7 @@
     </row>
     <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>22</v>
@@ -3036,7 +3042,7 @@
     </row>
     <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>23</v>
@@ -3050,7 +3056,7 @@
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>24</v>
@@ -3064,7 +3070,7 @@
     </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>25</v>
@@ -3078,7 +3084,7 @@
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>26</v>
@@ -3097,7 +3103,7 @@
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>9</v>
@@ -3111,7 +3117,7 @@
     </row>
     <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>11</v>
@@ -3125,7 +3131,7 @@
     </row>
     <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>12</v>
@@ -3139,7 +3145,7 @@
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>13</v>
@@ -3153,7 +3159,7 @@
     </row>
     <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>14</v>
@@ -3167,7 +3173,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>15</v>
@@ -3181,7 +3187,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>16</v>
@@ -3195,7 +3201,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>17</v>
@@ -3209,7 +3215,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>18</v>
@@ -3223,7 +3229,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>19</v>
@@ -3237,7 +3243,7 @@
     </row>
     <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>20</v>
@@ -3251,7 +3257,7 @@
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>21</v>
@@ -3265,7 +3271,7 @@
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>22</v>
@@ -3279,7 +3285,7 @@
     </row>
     <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>23</v>
@@ -3293,7 +3299,7 @@
     </row>
     <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>24</v>
@@ -3307,7 +3313,7 @@
     </row>
     <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>25</v>
@@ -3321,7 +3327,7 @@
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>26</v>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>9</v>
@@ -3354,7 +3360,7 @@
     </row>
     <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>11</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>12</v>
@@ -3382,7 +3388,7 @@
     </row>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>13</v>
@@ -3396,7 +3402,7 @@
     </row>
     <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>14</v>
@@ -3410,7 +3416,7 @@
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>15</v>
@@ -3424,7 +3430,7 @@
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>16</v>
@@ -3438,7 +3444,7 @@
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>17</v>
@@ -3452,7 +3458,7 @@
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>18</v>
@@ -3466,7 +3472,7 @@
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>19</v>
@@ -3480,7 +3486,7 @@
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>20</v>
@@ -3494,7 +3500,7 @@
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>21</v>
@@ -3508,7 +3514,7 @@
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>22</v>
@@ -3522,7 +3528,7 @@
     </row>
     <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>23</v>
@@ -3536,7 +3542,7 @@
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>24</v>
@@ -3550,7 +3556,7 @@
     </row>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>25</v>
@@ -3564,7 +3570,7 @@
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>26</v>
@@ -3583,7 +3589,7 @@
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B197" s="17" t="s">
         <v>9</v>
@@ -3597,7 +3603,7 @@
     </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>11</v>
@@ -3611,7 +3617,7 @@
     </row>
     <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>12</v>
@@ -3625,7 +3631,7 @@
     </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>13</v>
@@ -3639,7 +3645,7 @@
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>14</v>
@@ -3653,7 +3659,7 @@
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B202" s="19" t="s">
         <v>15</v>
@@ -3667,7 +3673,7 @@
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>16</v>
@@ -3681,7 +3687,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>17</v>
@@ -3695,7 +3701,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>18</v>
@@ -3709,7 +3715,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>19</v>
@@ -3723,7 +3729,7 @@
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>20</v>
@@ -3737,7 +3743,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>21</v>
@@ -3751,7 +3757,7 @@
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>22</v>
@@ -3765,7 +3771,7 @@
     </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>23</v>
@@ -3779,7 +3785,7 @@
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>24</v>
@@ -3793,7 +3799,7 @@
     </row>
     <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B212" s="19" t="s">
         <v>25</v>
@@ -3807,7 +3813,7 @@
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B213" s="19" t="s">
         <v>26</v>
@@ -3818,7 +3824,7 @@
     </row>
     <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B215" s="17" t="s">
         <v>9</v>
@@ -3832,7 +3838,7 @@
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B216" s="19" t="s">
         <v>11</v>
@@ -3846,7 +3852,7 @@
     </row>
     <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>12</v>
@@ -3860,7 +3866,7 @@
     </row>
     <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>13</v>
@@ -3874,7 +3880,7 @@
     </row>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B219" s="19" t="s">
         <v>14</v>
@@ -3888,7 +3894,7 @@
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>15</v>
@@ -3902,7 +3908,7 @@
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>16</v>
@@ -3916,7 +3922,7 @@
     </row>
     <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>17</v>
@@ -3930,7 +3936,7 @@
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>18</v>
@@ -3944,7 +3950,7 @@
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>19</v>
@@ -3958,7 +3964,7 @@
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>20</v>
@@ -3972,7 +3978,7 @@
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>21</v>
@@ -3986,7 +3992,7 @@
     </row>
     <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B227" s="19" t="s">
         <v>22</v>
@@ -4000,7 +4006,7 @@
     </row>
     <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B228" s="19" t="s">
         <v>23</v>
@@ -4014,7 +4020,7 @@
     </row>
     <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B229" s="19" t="s">
         <v>24</v>
@@ -4028,7 +4034,7 @@
     </row>
     <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B230" s="19" t="s">
         <v>25</v>
@@ -4042,7 +4048,7 @@
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B231" s="19" t="s">
         <v>26</v>
@@ -4056,7 +4062,7 @@
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B233" s="17" t="s">
         <v>9</v>
@@ -4070,7 +4076,7 @@
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B234" s="19" t="s">
         <v>11</v>
@@ -4084,7 +4090,7 @@
     </row>
     <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B235" s="19" t="s">
         <v>12</v>
@@ -4098,7 +4104,7 @@
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B236" s="19" t="s">
         <v>13</v>
@@ -4112,7 +4118,7 @@
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B237" s="19" t="s">
         <v>14</v>
@@ -4126,7 +4132,7 @@
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B238" s="19" t="s">
         <v>15</v>
@@ -4140,7 +4146,7 @@
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>16</v>
@@ -4154,7 +4160,7 @@
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B240" s="19" t="s">
         <v>17</v>
@@ -4168,7 +4174,7 @@
     </row>
     <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B241" s="19" t="s">
         <v>18</v>
@@ -4182,7 +4188,7 @@
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B242" s="19" t="s">
         <v>19</v>
@@ -4196,7 +4202,7 @@
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B243" s="19" t="s">
         <v>20</v>
@@ -4210,7 +4216,7 @@
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>21</v>
@@ -4224,7 +4230,7 @@
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B245" s="19" t="s">
         <v>22</v>
@@ -4238,7 +4244,7 @@
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B246" s="19" t="s">
         <v>23</v>
@@ -4252,7 +4258,7 @@
     </row>
     <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B247" s="19" t="s">
         <v>24</v>
@@ -4266,7 +4272,7 @@
     </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B248" s="19" t="s">
         <v>25</v>
@@ -4280,7 +4286,7 @@
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B249" s="19" t="s">
         <v>26</v>
@@ -4297,7 +4303,7 @@
     </row>
     <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B251" s="17" t="s">
         <v>9</v>
@@ -4311,7 +4317,7 @@
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>11</v>
@@ -4325,7 +4331,7 @@
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B253" s="19" t="s">
         <v>12</v>
@@ -4339,7 +4345,7 @@
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>13</v>
@@ -4353,7 +4359,7 @@
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B255" s="19" t="s">
         <v>14</v>
@@ -4367,7 +4373,7 @@
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>15</v>
@@ -4381,7 +4387,7 @@
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B257" s="19" t="s">
         <v>16</v>
@@ -4395,7 +4401,7 @@
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B258" s="19" t="s">
         <v>17</v>
@@ -4409,7 +4415,7 @@
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B259" s="19" t="s">
         <v>18</v>
@@ -4423,7 +4429,7 @@
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B260" s="19" t="s">
         <v>19</v>
@@ -4437,7 +4443,7 @@
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B261" s="19" t="s">
         <v>20</v>
@@ -4451,7 +4457,7 @@
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>21</v>
@@ -4465,7 +4471,7 @@
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>22</v>
@@ -4479,7 +4485,7 @@
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B264" s="19" t="s">
         <v>23</v>
@@ -4493,7 +4499,7 @@
     </row>
     <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B265" s="19" t="s">
         <v>24</v>
@@ -4507,7 +4513,7 @@
     </row>
     <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B266" s="19" t="s">
         <v>25</v>
@@ -4521,7 +4527,7 @@
     </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B267" s="19" t="s">
         <v>26</v>
@@ -4535,7 +4541,7 @@
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B269" s="17" t="s">
         <v>9</v>
@@ -4549,7 +4555,7 @@
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B270" s="19" t="s">
         <v>11</v>
@@ -4563,7 +4569,7 @@
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B271" s="19" t="s">
         <v>12</v>
@@ -4577,7 +4583,7 @@
     </row>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B272" s="19" t="s">
         <v>13</v>
@@ -4591,7 +4597,7 @@
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B273" s="19" t="s">
         <v>14</v>
@@ -4605,7 +4611,7 @@
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B274" s="19" t="s">
         <v>15</v>
@@ -4619,7 +4625,7 @@
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B275" s="19" t="s">
         <v>16</v>
@@ -4633,7 +4639,7 @@
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B276" s="19" t="s">
         <v>17</v>
@@ -4647,7 +4653,7 @@
     </row>
     <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B277" s="19" t="s">
         <v>18</v>
@@ -4661,7 +4667,7 @@
     </row>
     <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B278" s="19" t="s">
         <v>19</v>
@@ -4675,7 +4681,7 @@
     </row>
     <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B279" s="19" t="s">
         <v>20</v>
@@ -4689,7 +4695,7 @@
     </row>
     <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B280" s="19" t="s">
         <v>21</v>
@@ -4703,7 +4709,7 @@
     </row>
     <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B281" s="19" t="s">
         <v>22</v>
@@ -4717,7 +4723,7 @@
     </row>
     <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B282" s="19" t="s">
         <v>23</v>
@@ -4731,7 +4737,7 @@
     </row>
     <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B283" s="19" t="s">
         <v>24</v>
@@ -4745,7 +4751,7 @@
     </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B284" s="19" t="s">
         <v>25</v>
@@ -4759,7 +4765,7 @@
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B285" s="19" t="s">
         <v>26</v>
@@ -4773,7 +4779,7 @@
     </row>
     <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B287" s="17" t="s">
         <v>9</v>
@@ -4787,7 +4793,7 @@
     </row>
     <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B288" s="19" t="s">
         <v>11</v>
@@ -4801,7 +4807,7 @@
     </row>
     <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B289" s="19" t="s">
         <v>12</v>
@@ -4815,7 +4821,7 @@
     </row>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B290" s="19" t="s">
         <v>13</v>
@@ -4829,7 +4835,7 @@
     </row>
     <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B291" s="19" t="s">
         <v>14</v>
@@ -4843,7 +4849,7 @@
     </row>
     <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B292" s="19" t="s">
         <v>15</v>
@@ -4857,7 +4863,7 @@
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B293" s="19" t="s">
         <v>16</v>
@@ -4871,7 +4877,7 @@
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B294" s="19" t="s">
         <v>17</v>
@@ -4885,7 +4891,7 @@
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B295" s="19" t="s">
         <v>18</v>
@@ -4899,7 +4905,7 @@
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B296" s="19" t="s">
         <v>19</v>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B297" s="19" t="s">
         <v>20</v>
@@ -4927,7 +4933,7 @@
     </row>
     <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B298" s="19" t="s">
         <v>21</v>
@@ -4941,7 +4947,7 @@
     </row>
     <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B299" s="19" t="s">
         <v>22</v>
@@ -4955,7 +4961,7 @@
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B300" s="19" t="s">
         <v>23</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B301" s="19" t="s">
         <v>24</v>
@@ -4983,7 +4989,7 @@
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B302" s="19" t="s">
         <v>25</v>
@@ -4997,7 +5003,7 @@
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B303" s="19" t="s">
         <v>26</v>
@@ -5011,7 +5017,7 @@
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B305" s="17" t="s">
         <v>9</v>
@@ -5025,7 +5031,7 @@
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B306" s="19" t="s">
         <v>11</v>
@@ -5039,7 +5045,7 @@
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B307" s="19" t="s">
         <v>12</v>
@@ -5053,7 +5059,7 @@
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B308" s="19" t="s">
         <v>13</v>
@@ -5067,7 +5073,7 @@
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B309" s="19" t="s">
         <v>14</v>
@@ -5081,7 +5087,7 @@
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B310" s="19" t="s">
         <v>15</v>
@@ -5095,7 +5101,7 @@
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B311" s="19" t="s">
         <v>16</v>
@@ -5109,7 +5115,7 @@
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B312" s="19" t="s">
         <v>17</v>
@@ -5123,7 +5129,7 @@
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B313" s="19" t="s">
         <v>18</v>
@@ -5137,7 +5143,7 @@
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B314" s="19" t="s">
         <v>19</v>
@@ -5151,7 +5157,7 @@
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B315" s="19" t="s">
         <v>20</v>
@@ -5165,7 +5171,7 @@
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B316" s="19" t="s">
         <v>21</v>
@@ -5179,7 +5185,7 @@
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B317" s="19" t="s">
         <v>22</v>
@@ -5193,7 +5199,7 @@
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B318" s="19" t="s">
         <v>23</v>
@@ -5207,7 +5213,7 @@
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B319" s="19" t="s">
         <v>24</v>
@@ -5221,7 +5227,7 @@
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B320" s="19" t="s">
         <v>25</v>
@@ -5235,7 +5241,7 @@
     </row>
     <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B321" s="19" t="s">
         <v>26</v>
@@ -5249,7 +5255,7 @@
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B323" s="17" t="s">
         <v>9</v>
@@ -5263,7 +5269,7 @@
     </row>
     <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B324" s="19" t="s">
         <v>11</v>
@@ -5277,7 +5283,7 @@
     </row>
     <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B325" s="19" t="s">
         <v>12</v>
@@ -5291,7 +5297,7 @@
     </row>
     <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B326" s="19" t="s">
         <v>13</v>
@@ -5305,7 +5311,7 @@
     </row>
     <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B327" s="19" t="s">
         <v>14</v>
@@ -5319,7 +5325,7 @@
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B328" s="19" t="s">
         <v>15</v>
@@ -5333,7 +5339,7 @@
     </row>
     <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B329" s="19" t="s">
         <v>16</v>
@@ -5347,7 +5353,7 @@
     </row>
     <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B330" s="19" t="s">
         <v>17</v>
@@ -5361,7 +5367,7 @@
     </row>
     <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B331" s="19" t="s">
         <v>18</v>
@@ -5375,7 +5381,7 @@
     </row>
     <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B332" s="19" t="s">
         <v>19</v>
@@ -5389,7 +5395,7 @@
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B333" s="19" t="s">
         <v>20</v>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B334" s="19" t="s">
         <v>21</v>
@@ -5417,7 +5423,7 @@
     </row>
     <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B335" s="19" t="s">
         <v>22</v>
@@ -5431,7 +5437,7 @@
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B336" s="19" t="s">
         <v>23</v>
@@ -5445,7 +5451,7 @@
     </row>
     <row r="337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B337" s="19" t="s">
         <v>24</v>
@@ -5459,7 +5465,7 @@
     </row>
     <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B338" s="19" t="s">
         <v>25</v>
@@ -5473,7 +5479,7 @@
     </row>
     <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B339" s="19" t="s">
         <v>26</v>
@@ -5487,7 +5493,7 @@
     </row>
     <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B341" s="17" t="s">
         <v>9</v>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B342" s="19" t="s">
         <v>11</v>
@@ -5515,7 +5521,7 @@
     </row>
     <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B343" s="19" t="s">
         <v>12</v>
@@ -5529,7 +5535,7 @@
     </row>
     <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B344" s="19" t="s">
         <v>13</v>
@@ -5543,7 +5549,7 @@
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B345" s="19" t="s">
         <v>14</v>
@@ -5557,7 +5563,7 @@
     </row>
     <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B346" s="19" t="s">
         <v>15</v>
@@ -5571,7 +5577,7 @@
     </row>
     <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B347" s="19" t="s">
         <v>16</v>
@@ -5585,7 +5591,7 @@
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B348" s="19" t="s">
         <v>17</v>
@@ -5599,7 +5605,7 @@
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B349" s="19" t="s">
         <v>18</v>
@@ -5613,7 +5619,7 @@
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B350" s="19" t="s">
         <v>19</v>
@@ -5627,7 +5633,7 @@
     </row>
     <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B351" s="19" t="s">
         <v>20</v>
@@ -5641,7 +5647,7 @@
     </row>
     <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B352" s="19" t="s">
         <v>21</v>
@@ -5655,7 +5661,7 @@
     </row>
     <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B353" s="19" t="s">
         <v>22</v>
@@ -5669,7 +5675,7 @@
     </row>
     <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B354" s="19" t="s">
         <v>23</v>
@@ -5683,7 +5689,7 @@
     </row>
     <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B355" s="19" t="s">
         <v>24</v>
@@ -5697,7 +5703,7 @@
     </row>
     <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B356" s="19" t="s">
         <v>25</v>
@@ -5711,7 +5717,7 @@
     </row>
     <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>26</v>
@@ -5725,7 +5731,7 @@
     </row>
     <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B359" s="17" t="s">
         <v>9</v>
@@ -5739,7 +5745,7 @@
     </row>
     <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B360" s="19" t="s">
         <v>11</v>
@@ -5753,7 +5759,7 @@
     </row>
     <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B361" s="19" t="s">
         <v>12</v>
@@ -5767,7 +5773,7 @@
     </row>
     <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B362" s="19" t="s">
         <v>13</v>
@@ -5781,7 +5787,7 @@
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B363" s="19" t="s">
         <v>14</v>
@@ -5795,7 +5801,7 @@
     </row>
     <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B364" s="19" t="s">
         <v>15</v>
@@ -5809,7 +5815,7 @@
     </row>
     <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B365" s="19" t="s">
         <v>16</v>
@@ -5823,7 +5829,7 @@
     </row>
     <row r="366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B366" s="19" t="s">
         <v>17</v>
@@ -5837,7 +5843,7 @@
     </row>
     <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B367" s="19" t="s">
         <v>18</v>
@@ -5851,7 +5857,7 @@
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B368" s="19" t="s">
         <v>19</v>
@@ -5865,7 +5871,7 @@
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B369" s="19" t="s">
         <v>20</v>
@@ -5879,7 +5885,7 @@
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B370" s="19" t="s">
         <v>21</v>
@@ -5893,7 +5899,7 @@
     </row>
     <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B371" s="19" t="s">
         <v>22</v>
@@ -5907,7 +5913,7 @@
     </row>
     <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B372" s="19" t="s">
         <v>23</v>
@@ -5921,7 +5927,7 @@
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B373" s="19" t="s">
         <v>24</v>
@@ -5935,7 +5941,7 @@
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B374" s="19" t="s">
         <v>25</v>
@@ -5949,7 +5955,7 @@
     </row>
     <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B375" s="19" t="s">
         <v>26</v>
@@ -5963,7 +5969,7 @@
     </row>
     <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B377" s="17" t="s">
         <v>9</v>
@@ -5977,7 +5983,7 @@
     </row>
     <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B378" s="19" t="s">
         <v>11</v>
@@ -5991,7 +5997,7 @@
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B379" s="19" t="s">
         <v>12</v>
@@ -6005,7 +6011,7 @@
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B380" s="19" t="s">
         <v>13</v>
@@ -6019,7 +6025,7 @@
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B381" s="19" t="s">
         <v>14</v>
@@ -6033,7 +6039,7 @@
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B382" s="19" t="s">
         <v>15</v>
@@ -6047,7 +6053,7 @@
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B383" s="19" t="s">
         <v>16</v>
@@ -6061,7 +6067,7 @@
     </row>
     <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B384" s="19" t="s">
         <v>17</v>
@@ -6075,7 +6081,7 @@
     </row>
     <row r="385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B385" s="19" t="s">
         <v>18</v>
@@ -6089,7 +6095,7 @@
     </row>
     <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B386" s="19" t="s">
         <v>19</v>
@@ -6103,7 +6109,7 @@
     </row>
     <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B387" s="19" t="s">
         <v>20</v>
@@ -6117,7 +6123,7 @@
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B388" s="19" t="s">
         <v>21</v>
@@ -6131,7 +6137,7 @@
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B389" s="19" t="s">
         <v>22</v>
@@ -6145,7 +6151,7 @@
     </row>
     <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B390" s="19" t="s">
         <v>23</v>
@@ -6159,7 +6165,7 @@
     </row>
     <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B391" s="19" t="s">
         <v>24</v>
@@ -6173,7 +6179,7 @@
     </row>
     <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B392" s="19" t="s">
         <v>25</v>
@@ -6187,7 +6193,7 @@
     </row>
     <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B393" s="19" t="s">
         <v>26</v>
@@ -6201,7 +6207,7 @@
     </row>
     <row r="395" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B395" s="17" t="s">
         <v>9</v>
@@ -6215,7 +6221,7 @@
     </row>
     <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B396" s="19" t="s">
         <v>11</v>
@@ -6229,7 +6235,7 @@
     </row>
     <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B397" s="19" t="s">
         <v>12</v>
@@ -6243,7 +6249,7 @@
     </row>
     <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B398" s="19" t="s">
         <v>13</v>
@@ -6257,7 +6263,7 @@
     </row>
     <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B399" s="19" t="s">
         <v>14</v>
@@ -6271,7 +6277,7 @@
     </row>
     <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B400" s="19" t="s">
         <v>15</v>
@@ -6285,7 +6291,7 @@
     </row>
     <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B401" s="19" t="s">
         <v>16</v>
@@ -6299,7 +6305,7 @@
     </row>
     <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B402" s="19" t="s">
         <v>17</v>
@@ -6313,7 +6319,7 @@
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B403" s="19" t="s">
         <v>18</v>
@@ -6327,7 +6333,7 @@
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B404" s="19" t="s">
         <v>19</v>
@@ -6341,7 +6347,7 @@
     </row>
     <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B405" s="19" t="s">
         <v>20</v>
@@ -6355,7 +6361,7 @@
     </row>
     <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B406" s="19" t="s">
         <v>21</v>
@@ -6369,7 +6375,7 @@
     </row>
     <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B407" s="19" t="s">
         <v>22</v>
@@ -6383,7 +6389,7 @@
     </row>
     <row r="408" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B408" s="19" t="s">
         <v>23</v>
@@ -6397,7 +6403,7 @@
     </row>
     <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B409" s="19" t="s">
         <v>24</v>
@@ -6411,7 +6417,7 @@
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B410" s="19" t="s">
         <v>25</v>
@@ -6425,7 +6431,7 @@
     </row>
     <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B411" s="19" t="s">
         <v>26</v>
@@ -6439,7 +6445,7 @@
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B413" s="17" t="s">
         <v>9</v>
@@ -6453,7 +6459,7 @@
     </row>
     <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B414" s="19" t="s">
         <v>11</v>
@@ -6467,7 +6473,7 @@
     </row>
     <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B415" s="19" t="s">
         <v>12</v>
@@ -6481,7 +6487,7 @@
     </row>
     <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B416" s="19" t="s">
         <v>13</v>
@@ -6495,7 +6501,7 @@
     </row>
     <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>14</v>
@@ -6509,7 +6515,7 @@
     </row>
     <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B418" s="19" t="s">
         <v>15</v>
@@ -6523,7 +6529,7 @@
     </row>
     <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B419" s="19" t="s">
         <v>16</v>
@@ -6537,7 +6543,7 @@
     </row>
     <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B420" s="19" t="s">
         <v>17</v>
@@ -6551,7 +6557,7 @@
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B421" s="19" t="s">
         <v>18</v>
@@ -6565,7 +6571,7 @@
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B422" s="19" t="s">
         <v>19</v>
@@ -6579,7 +6585,7 @@
     </row>
     <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B423" s="19" t="s">
         <v>20</v>
@@ -6593,7 +6599,7 @@
     </row>
     <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B424" s="19" t="s">
         <v>21</v>
@@ -6607,7 +6613,7 @@
     </row>
     <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B425" s="19" t="s">
         <v>22</v>
@@ -6621,7 +6627,7 @@
     </row>
     <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B426" s="19" t="s">
         <v>23</v>
@@ -6635,7 +6641,7 @@
     </row>
     <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B427" s="19" t="s">
         <v>24</v>
@@ -6649,7 +6655,7 @@
     </row>
     <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B428" s="19" t="s">
         <v>25</v>
@@ -6663,7 +6669,7 @@
     </row>
     <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B429" s="19" t="s">
         <v>26</v>
@@ -6677,7 +6683,7 @@
     </row>
     <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B431" s="17" t="s">
         <v>9</v>
@@ -6691,7 +6697,7 @@
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B432" s="19" t="s">
         <v>11</v>
@@ -6705,7 +6711,7 @@
     </row>
     <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B433" s="19" t="s">
         <v>12</v>
@@ -6719,7 +6725,7 @@
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B434" s="19" t="s">
         <v>13</v>
@@ -6733,7 +6739,7 @@
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B435" s="19" t="s">
         <v>14</v>
@@ -6747,7 +6753,7 @@
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>15</v>
@@ -6761,7 +6767,7 @@
     </row>
     <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B437" s="19" t="s">
         <v>16</v>
@@ -6775,7 +6781,7 @@
     </row>
     <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B438" s="19" t="s">
         <v>17</v>
@@ -6789,7 +6795,7 @@
     </row>
     <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B439" s="19" t="s">
         <v>18</v>
@@ -6803,7 +6809,7 @@
     </row>
     <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B440" s="19" t="s">
         <v>19</v>
@@ -6817,7 +6823,7 @@
     </row>
     <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B441" s="19" t="s">
         <v>20</v>
@@ -6831,7 +6837,7 @@
     </row>
     <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B442" s="19" t="s">
         <v>21</v>
@@ -6845,7 +6851,7 @@
     </row>
     <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B443" s="19" t="s">
         <v>22</v>
@@ -6859,7 +6865,7 @@
     </row>
     <row r="444" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B444" s="19" t="s">
         <v>23</v>
@@ -6873,7 +6879,7 @@
     </row>
     <row r="445" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B445" s="19" t="s">
         <v>24</v>
@@ -6887,7 +6893,7 @@
     </row>
     <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>25</v>
@@ -6901,7 +6907,7 @@
     </row>
     <row r="447" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B447" s="19" t="s">
         <v>26</v>
@@ -6915,7 +6921,7 @@
     </row>
     <row r="449" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B449" s="17" t="s">
         <v>9</v>
@@ -6929,7 +6935,7 @@
     </row>
     <row r="450" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B450" s="19" t="s">
         <v>11</v>
@@ -6943,7 +6949,7 @@
     </row>
     <row r="451" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B451" s="19" t="s">
         <v>12</v>
@@ -6957,7 +6963,7 @@
     </row>
     <row r="452" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B452" s="19" t="s">
         <v>13</v>
@@ -6971,7 +6977,7 @@
     </row>
     <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B453" s="19" t="s">
         <v>14</v>
@@ -6985,7 +6991,7 @@
     </row>
     <row r="454" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B454" s="19" t="s">
         <v>15</v>
@@ -6999,7 +7005,7 @@
     </row>
     <row r="455" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B455" s="19" t="s">
         <v>16</v>
@@ -7013,7 +7019,7 @@
     </row>
     <row r="456" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>17</v>
@@ -7027,7 +7033,7 @@
     </row>
     <row r="457" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B457" s="19" t="s">
         <v>18</v>
@@ -7041,7 +7047,7 @@
     </row>
     <row r="458" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B458" s="19" t="s">
         <v>19</v>
@@ -7055,7 +7061,7 @@
     </row>
     <row r="459" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B459" s="19" t="s">
         <v>20</v>
@@ -7069,7 +7075,7 @@
     </row>
     <row r="460" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B460" s="19" t="s">
         <v>21</v>
@@ -7083,7 +7089,7 @@
     </row>
     <row r="461" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>22</v>
@@ -7097,7 +7103,7 @@
     </row>
     <row r="462" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>23</v>
@@ -7111,7 +7117,7 @@
     </row>
     <row r="463" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B463" s="19" t="s">
         <v>24</v>
@@ -7125,7 +7131,7 @@
     </row>
     <row r="464" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B464" s="19" t="s">
         <v>25</v>
@@ -7139,7 +7145,7 @@
     </row>
     <row r="465" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B465" s="19" t="s">
         <v>26</v>
@@ -7153,7 +7159,7 @@
     </row>
     <row r="467" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B467" s="17" t="s">
         <v>9</v>
@@ -7167,7 +7173,7 @@
     </row>
     <row r="468" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B468" s="19" t="s">
         <v>11</v>
@@ -7181,7 +7187,7 @@
     </row>
     <row r="469" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B469" s="19" t="s">
         <v>12</v>
@@ -7195,7 +7201,7 @@
     </row>
     <row r="470" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B470" s="19" t="s">
         <v>13</v>
@@ -7209,7 +7215,7 @@
     </row>
     <row r="471" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B471" s="19" t="s">
         <v>14</v>
@@ -7223,7 +7229,7 @@
     </row>
     <row r="472" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B472" s="19" t="s">
         <v>15</v>
@@ -7237,7 +7243,7 @@
     </row>
     <row r="473" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B473" s="19" t="s">
         <v>16</v>
@@ -7251,7 +7257,7 @@
     </row>
     <row r="474" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B474" s="19" t="s">
         <v>17</v>
@@ -7265,7 +7271,7 @@
     </row>
     <row r="475" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B475" s="19" t="s">
         <v>18</v>
@@ -7279,7 +7285,7 @@
     </row>
     <row r="476" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B476" s="19" t="s">
         <v>19</v>
@@ -7293,7 +7299,7 @@
     </row>
     <row r="477" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B477" s="19" t="s">
         <v>20</v>
@@ -7307,7 +7313,7 @@
     </row>
     <row r="478" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B478" s="19" t="s">
         <v>21</v>
@@ -7321,7 +7327,7 @@
     </row>
     <row r="479" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B479" s="19" t="s">
         <v>22</v>
@@ -7335,7 +7341,7 @@
     </row>
     <row r="480" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B480" s="19" t="s">
         <v>23</v>
@@ -7349,7 +7355,7 @@
     </row>
     <row r="481" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B481" s="19" t="s">
         <v>24</v>
@@ -7363,7 +7369,7 @@
     </row>
     <row r="482" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B482" s="19" t="s">
         <v>25</v>
@@ -7377,7 +7383,7 @@
     </row>
     <row r="483" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B483" s="19" t="s">
         <v>26</v>
@@ -7391,7 +7397,7 @@
     </row>
     <row r="485" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B485" s="17" t="s">
         <v>9</v>
@@ -7405,7 +7411,7 @@
     </row>
     <row r="486" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>11</v>
@@ -7419,7 +7425,7 @@
     </row>
     <row r="487" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>12</v>
@@ -7433,7 +7439,7 @@
     </row>
     <row r="488" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>13</v>
@@ -7447,7 +7453,7 @@
     </row>
     <row r="489" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>14</v>
@@ -7461,7 +7467,7 @@
     </row>
     <row r="490" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B490" s="19" t="s">
         <v>15</v>
@@ -7475,7 +7481,7 @@
     </row>
     <row r="491" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B491" s="19" t="s">
         <v>16</v>
@@ -7489,7 +7495,7 @@
     </row>
     <row r="492" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B492" s="19" t="s">
         <v>17</v>
@@ -7503,7 +7509,7 @@
     </row>
     <row r="493" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B493" s="19" t="s">
         <v>18</v>
@@ -7517,7 +7523,7 @@
     </row>
     <row r="494" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B494" s="19" t="s">
         <v>19</v>
@@ -7531,7 +7537,7 @@
     </row>
     <row r="495" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B495" s="19" t="s">
         <v>20</v>
@@ -7545,7 +7551,7 @@
     </row>
     <row r="496" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>21</v>
@@ -7559,7 +7565,7 @@
     </row>
     <row r="497" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B497" s="19" t="s">
         <v>22</v>
@@ -7573,7 +7579,7 @@
     </row>
     <row r="498" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B498" s="19" t="s">
         <v>23</v>
@@ -7587,7 +7593,7 @@
     </row>
     <row r="499" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B499" s="19" t="s">
         <v>24</v>
@@ -7601,7 +7607,7 @@
     </row>
     <row r="500" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B500" s="19" t="s">
         <v>25</v>
@@ -7615,7 +7621,7 @@
     </row>
     <row r="501" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B501" s="19" t="s">
         <v>26</v>
@@ -7629,7 +7635,7 @@
     </row>
     <row r="503" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B503" s="17" t="s">
         <v>9</v>
@@ -7643,7 +7649,7 @@
     </row>
     <row r="504" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B504" s="19" t="s">
         <v>11</v>
@@ -7657,7 +7663,7 @@
     </row>
     <row r="505" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B505" s="19" t="s">
         <v>12</v>
@@ -7671,7 +7677,7 @@
     </row>
     <row r="506" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B506" s="19" t="s">
         <v>13</v>
@@ -7685,7 +7691,7 @@
     </row>
     <row r="507" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B507" s="19" t="s">
         <v>14</v>
@@ -7699,7 +7705,7 @@
     </row>
     <row r="508" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B508" s="19" t="s">
         <v>15</v>
@@ -7713,7 +7719,7 @@
     </row>
     <row r="509" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B509" s="19" t="s">
         <v>16</v>
@@ -7727,7 +7733,7 @@
     </row>
     <row r="510" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B510" s="19" t="s">
         <v>17</v>
@@ -7741,7 +7747,7 @@
     </row>
     <row r="511" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B511" s="19" t="s">
         <v>18</v>
@@ -7755,7 +7761,7 @@
     </row>
     <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B512" s="19" t="s">
         <v>19</v>
@@ -7769,7 +7775,7 @@
     </row>
     <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B513" s="19" t="s">
         <v>20</v>
@@ -7783,7 +7789,7 @@
     </row>
     <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B514" s="19" t="s">
         <v>21</v>
@@ -7797,7 +7803,7 @@
     </row>
     <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B515" s="19" t="s">
         <v>22</v>
@@ -7811,7 +7817,7 @@
     </row>
     <row r="516" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B516" s="19" t="s">
         <v>23</v>
@@ -7825,7 +7831,7 @@
     </row>
     <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B517" s="19" t="s">
         <v>24</v>
@@ -7839,7 +7845,7 @@
     </row>
     <row r="518" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B518" s="19" t="s">
         <v>25</v>
@@ -7853,7 +7859,7 @@
     </row>
     <row r="519" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B519" s="19" t="s">
         <v>26</v>
@@ -7867,7 +7873,7 @@
     </row>
     <row r="521" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B521" s="17" t="s">
         <v>9</v>
@@ -7881,7 +7887,7 @@
     </row>
     <row r="522" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B522" s="19" t="s">
         <v>11</v>
@@ -7895,7 +7901,7 @@
     </row>
     <row r="523" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B523" s="19" t="s">
         <v>12</v>
@@ -7909,7 +7915,7 @@
     </row>
     <row r="524" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B524" s="19" t="s">
         <v>13</v>
@@ -7923,7 +7929,7 @@
     </row>
     <row r="525" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B525" s="19" t="s">
         <v>14</v>
@@ -7937,7 +7943,7 @@
     </row>
     <row r="526" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B526" s="19" t="s">
         <v>15</v>
@@ -7951,7 +7957,7 @@
     </row>
     <row r="527" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B527" s="19" t="s">
         <v>16</v>
@@ -7965,7 +7971,7 @@
     </row>
     <row r="528" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B528" s="19" t="s">
         <v>17</v>
@@ -7979,7 +7985,7 @@
     </row>
     <row r="529" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B529" s="19" t="s">
         <v>18</v>
@@ -7993,7 +7999,7 @@
     </row>
     <row r="530" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B530" s="19" t="s">
         <v>19</v>
@@ -8007,7 +8013,7 @@
     </row>
     <row r="531" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B531" s="19" t="s">
         <v>20</v>
@@ -8021,7 +8027,7 @@
     </row>
     <row r="532" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B532" s="19" t="s">
         <v>21</v>
@@ -8035,7 +8041,7 @@
     </row>
     <row r="533" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B533" s="19" t="s">
         <v>22</v>
@@ -8049,7 +8055,7 @@
     </row>
     <row r="534" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B534" s="19" t="s">
         <v>23</v>
@@ -8063,7 +8069,7 @@
     </row>
     <row r="535" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B535" s="19" t="s">
         <v>24</v>
@@ -8077,7 +8083,7 @@
     </row>
     <row r="536" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B536" s="19" t="s">
         <v>25</v>
@@ -8091,7 +8097,7 @@
     </row>
     <row r="537" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B537" s="19" t="s">
         <v>26</v>
@@ -8105,7 +8111,7 @@
     </row>
     <row r="539" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B539" s="17" t="s">
         <v>9</v>
@@ -8119,7 +8125,7 @@
     </row>
     <row r="540" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B540" s="19" t="s">
         <v>11</v>
@@ -8133,7 +8139,7 @@
     </row>
     <row r="541" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B541" s="19" t="s">
         <v>12</v>
@@ -8147,7 +8153,7 @@
     </row>
     <row r="542" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B542" s="19" t="s">
         <v>13</v>
@@ -8161,7 +8167,7 @@
     </row>
     <row r="543" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B543" s="19" t="s">
         <v>14</v>
@@ -8175,7 +8181,7 @@
     </row>
     <row r="544" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B544" s="19" t="s">
         <v>15</v>
@@ -8189,7 +8195,7 @@
     </row>
     <row r="545" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B545" s="19" t="s">
         <v>16</v>
@@ -8203,7 +8209,7 @@
     </row>
     <row r="546" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B546" s="19" t="s">
         <v>17</v>
@@ -8217,7 +8223,7 @@
     </row>
     <row r="547" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B547" s="19" t="s">
         <v>18</v>
@@ -8231,7 +8237,7 @@
     </row>
     <row r="548" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B548" s="19" t="s">
         <v>19</v>
@@ -8245,7 +8251,7 @@
     </row>
     <row r="549" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B549" s="19" t="s">
         <v>20</v>
@@ -8259,7 +8265,7 @@
     </row>
     <row r="550" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B550" s="19" t="s">
         <v>21</v>
@@ -8273,7 +8279,7 @@
     </row>
     <row r="551" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B551" s="19" t="s">
         <v>22</v>
@@ -8287,7 +8293,7 @@
     </row>
     <row r="552" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B552" s="19" t="s">
         <v>23</v>
@@ -8301,7 +8307,7 @@
     </row>
     <row r="553" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B553" s="19" t="s">
         <v>24</v>
@@ -8315,7 +8321,7 @@
     </row>
     <row r="554" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B554" s="19" t="s">
         <v>25</v>
@@ -8329,7 +8335,7 @@
     </row>
     <row r="555" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B555" s="19" t="s">
         <v>26</v>
@@ -8343,7 +8349,7 @@
     </row>
     <row r="557" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B557" s="17" t="s">
         <v>9</v>
@@ -8357,7 +8363,7 @@
     </row>
     <row r="558" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B558" s="19" t="s">
         <v>11</v>
@@ -8371,7 +8377,7 @@
     </row>
     <row r="559" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B559" s="19" t="s">
         <v>12</v>
@@ -8385,7 +8391,7 @@
     </row>
     <row r="560" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B560" s="19" t="s">
         <v>13</v>
@@ -8399,7 +8405,7 @@
     </row>
     <row r="561" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B561" s="19" t="s">
         <v>14</v>
@@ -8413,7 +8419,7 @@
     </row>
     <row r="562" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B562" s="19" t="s">
         <v>15</v>
@@ -8427,7 +8433,7 @@
     </row>
     <row r="563" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B563" s="19" t="s">
         <v>16</v>
@@ -8441,7 +8447,7 @@
     </row>
     <row r="564" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B564" s="19" t="s">
         <v>17</v>
@@ -8455,7 +8461,7 @@
     </row>
     <row r="565" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B565" s="19" t="s">
         <v>18</v>
@@ -8469,7 +8475,7 @@
     </row>
     <row r="566" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B566" s="19" t="s">
         <v>19</v>
@@ -8483,7 +8489,7 @@
     </row>
     <row r="567" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B567" s="19" t="s">
         <v>20</v>
@@ -8497,7 +8503,7 @@
     </row>
     <row r="568" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B568" s="19" t="s">
         <v>21</v>
@@ -8511,7 +8517,7 @@
     </row>
     <row r="569" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B569" s="19" t="s">
         <v>22</v>
@@ -8525,7 +8531,7 @@
     </row>
     <row r="570" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B570" s="19" t="s">
         <v>23</v>
@@ -8539,7 +8545,7 @@
     </row>
     <row r="571" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B571" s="19" t="s">
         <v>24</v>
@@ -8553,7 +8559,7 @@
     </row>
     <row r="572" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B572" s="19" t="s">
         <v>25</v>
@@ -8567,7 +8573,7 @@
     </row>
     <row r="573" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B573" s="19" t="s">
         <v>26</v>
@@ -8581,7 +8587,7 @@
     </row>
     <row r="574" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B574" s="17" t="s">
         <v>9</v>
@@ -8595,7 +8601,7 @@
     </row>
     <row r="575" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B575" s="19" t="s">
         <v>11</v>
@@ -8609,7 +8615,7 @@
     </row>
     <row r="576" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B576" s="19" t="s">
         <v>12</v>
@@ -8623,7 +8629,7 @@
     </row>
     <row r="577" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B577" s="19" t="s">
         <v>13</v>
@@ -8637,7 +8643,7 @@
     </row>
     <row r="578" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B578" s="19" t="s">
         <v>14</v>
@@ -8651,7 +8657,7 @@
     </row>
     <row r="579" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B579" s="19" t="s">
         <v>15</v>
@@ -8665,7 +8671,7 @@
     </row>
     <row r="580" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B580" s="19" t="s">
         <v>16</v>
@@ -8679,7 +8685,7 @@
     </row>
     <row r="581" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B581" s="19" t="s">
         <v>17</v>
@@ -8693,7 +8699,7 @@
     </row>
     <row r="582" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B582" s="19" t="s">
         <v>18</v>
@@ -8707,7 +8713,7 @@
     </row>
     <row r="583" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B583" s="19" t="s">
         <v>19</v>
@@ -8721,7 +8727,7 @@
     </row>
     <row r="584" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B584" s="19" t="s">
         <v>20</v>
@@ -8735,7 +8741,7 @@
     </row>
     <row r="585" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B585" s="19" t="s">
         <v>21</v>
@@ -8749,7 +8755,7 @@
     </row>
     <row r="586" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B586" s="19" t="s">
         <v>22</v>
@@ -8763,7 +8769,7 @@
     </row>
     <row r="587" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B587" s="19" t="s">
         <v>23</v>
@@ -8777,7 +8783,7 @@
     </row>
     <row r="588" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B588" s="19" t="s">
         <v>24</v>
@@ -8791,7 +8797,7 @@
     </row>
     <row r="589" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B589" s="19" t="s">
         <v>25</v>
@@ -8805,7 +8811,7 @@
     </row>
     <row r="590" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B590" s="19" t="s">
         <v>26</v>
@@ -8819,7 +8825,7 @@
     </row>
     <row r="592" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B592" s="17" t="s">
         <v>9</v>
@@ -8833,7 +8839,7 @@
     </row>
     <row r="593" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B593" s="19" t="s">
         <v>11</v>
@@ -8847,7 +8853,7 @@
     </row>
     <row r="594" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B594" s="19" t="s">
         <v>12</v>
@@ -8861,7 +8867,7 @@
     </row>
     <row r="595" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B595" s="19" t="s">
         <v>13</v>
@@ -8875,7 +8881,7 @@
     </row>
     <row r="596" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B596" s="19" t="s">
         <v>14</v>
@@ -8889,7 +8895,7 @@
     </row>
     <row r="597" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B597" s="19" t="s">
         <v>15</v>
@@ -8903,7 +8909,7 @@
     </row>
     <row r="598" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B598" s="19" t="s">
         <v>16</v>
@@ -8917,7 +8923,7 @@
     </row>
     <row r="599" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B599" s="19" t="s">
         <v>17</v>
@@ -8931,7 +8937,7 @@
     </row>
     <row r="600" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B600" s="19" t="s">
         <v>18</v>
@@ -8945,7 +8951,7 @@
     </row>
     <row r="601" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B601" s="19" t="s">
         <v>19</v>
@@ -8959,7 +8965,7 @@
     </row>
     <row r="602" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B602" s="19" t="s">
         <v>20</v>
@@ -8973,7 +8979,7 @@
     </row>
     <row r="603" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B603" s="19" t="s">
         <v>21</v>
@@ -8987,7 +8993,7 @@
     </row>
     <row r="604" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B604" s="19" t="s">
         <v>22</v>
@@ -9001,7 +9007,7 @@
     </row>
     <row r="605" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B605" s="19" t="s">
         <v>23</v>
@@ -9015,7 +9021,7 @@
     </row>
     <row r="606" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B606" s="19" t="s">
         <v>24</v>
@@ -9029,7 +9035,7 @@
     </row>
     <row r="607" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B607" s="19" t="s">
         <v>25</v>
@@ -9043,7 +9049,7 @@
     </row>
     <row r="608" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B608" s="19" t="s">
         <v>26</v>
@@ -9057,7 +9063,7 @@
     </row>
     <row r="610" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B610" s="17" t="s">
         <v>9</v>
@@ -9071,7 +9077,7 @@
     </row>
     <row r="611" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B611" s="19" t="s">
         <v>11</v>
@@ -9085,7 +9091,7 @@
     </row>
     <row r="612" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B612" s="19" t="s">
         <v>12</v>
@@ -9099,7 +9105,7 @@
     </row>
     <row r="613" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B613" s="19" t="s">
         <v>13</v>
@@ -9113,7 +9119,7 @@
     </row>
     <row r="614" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B614" s="19" t="s">
         <v>14</v>
@@ -9127,7 +9133,7 @@
     </row>
     <row r="615" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B615" s="19" t="s">
         <v>15</v>
@@ -9141,7 +9147,7 @@
     </row>
     <row r="616" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B616" s="19" t="s">
         <v>16</v>
@@ -9155,7 +9161,7 @@
     </row>
     <row r="617" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B617" s="19" t="s">
         <v>17</v>
@@ -9169,7 +9175,7 @@
     </row>
     <row r="618" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B618" s="19" t="s">
         <v>18</v>
@@ -9183,7 +9189,7 @@
     </row>
     <row r="619" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B619" s="19" t="s">
         <v>19</v>
@@ -9197,7 +9203,7 @@
     </row>
     <row r="620" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B620" s="19" t="s">
         <v>20</v>
@@ -9211,7 +9217,7 @@
     </row>
     <row r="621" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B621" s="19" t="s">
         <v>21</v>
@@ -9225,7 +9231,7 @@
     </row>
     <row r="622" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B622" s="19" t="s">
         <v>22</v>
@@ -9239,7 +9245,7 @@
     </row>
     <row r="623" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B623" s="19" t="s">
         <v>23</v>
@@ -9253,7 +9259,7 @@
     </row>
     <row r="624" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B624" s="19" t="s">
         <v>24</v>
@@ -9267,7 +9273,7 @@
     </row>
     <row r="625" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B625" s="19" t="s">
         <v>25</v>
@@ -9281,7 +9287,7 @@
     </row>
     <row r="626" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B626" s="19" t="s">
         <v>26</v>
@@ -9295,7 +9301,7 @@
     </row>
     <row r="628" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B628" s="17" t="s">
         <v>9</v>
@@ -9309,7 +9315,7 @@
     </row>
     <row r="629" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B629" s="19" t="s">
         <v>11</v>
@@ -9323,7 +9329,7 @@
     </row>
     <row r="630" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B630" s="19" t="s">
         <v>12</v>
@@ -9337,7 +9343,7 @@
     </row>
     <row r="631" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B631" s="19" t="s">
         <v>13</v>
@@ -9351,7 +9357,7 @@
     </row>
     <row r="632" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B632" s="19" t="s">
         <v>14</v>
@@ -9365,7 +9371,7 @@
     </row>
     <row r="633" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B633" s="19" t="s">
         <v>15</v>
@@ -9379,7 +9385,7 @@
     </row>
     <row r="634" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B634" s="19" t="s">
         <v>16</v>
@@ -9393,7 +9399,7 @@
     </row>
     <row r="635" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B635" s="19" t="s">
         <v>17</v>
@@ -9407,7 +9413,7 @@
     </row>
     <row r="636" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B636" s="19" t="s">
         <v>18</v>
@@ -9421,7 +9427,7 @@
     </row>
     <row r="637" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B637" s="19" t="s">
         <v>19</v>
@@ -9435,7 +9441,7 @@
     </row>
     <row r="638" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B638" s="19" t="s">
         <v>20</v>
@@ -9449,7 +9455,7 @@
     </row>
     <row r="639" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B639" s="19" t="s">
         <v>21</v>
@@ -9463,7 +9469,7 @@
     </row>
     <row r="640" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B640" s="19" t="s">
         <v>22</v>
@@ -9477,7 +9483,7 @@
     </row>
     <row r="641" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B641" s="19" t="s">
         <v>23</v>
@@ -9491,7 +9497,7 @@
     </row>
     <row r="642" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B642" s="19" t="s">
         <v>24</v>
@@ -9505,7 +9511,7 @@
     </row>
     <row r="643" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B643" s="19" t="s">
         <v>25</v>
@@ -9519,7 +9525,7 @@
     </row>
     <row r="644" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B644" s="19" t="s">
         <v>26</v>
@@ -9533,7 +9539,7 @@
     </row>
     <row r="646" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B646" s="17" t="s">
         <v>9</v>
@@ -9542,12 +9548,12 @@
         <v>4201</v>
       </c>
       <c r="D646" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B647" s="19" t="s">
         <v>11</v>
@@ -9556,12 +9562,12 @@
         <v>4725</v>
       </c>
       <c r="D647" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B648" s="19" t="s">
         <v>12</v>
@@ -9570,12 +9576,12 @@
         <v>5249</v>
       </c>
       <c r="D648" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B649" s="19" t="s">
         <v>13</v>
@@ -9584,12 +9590,12 @@
         <v>5773</v>
       </c>
       <c r="D649" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B650" s="19" t="s">
         <v>14</v>
@@ -9598,12 +9604,12 @@
         <v>6296</v>
       </c>
       <c r="D650" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B651" s="19" t="s">
         <v>15</v>
@@ -9612,12 +9618,12 @@
         <v>6820</v>
       </c>
       <c r="D651" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B652" s="19" t="s">
         <v>16</v>
@@ -9626,12 +9632,12 @@
         <v>7345</v>
       </c>
       <c r="D652" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B653" s="19" t="s">
         <v>17</v>
@@ -9640,12 +9646,12 @@
         <v>7868</v>
       </c>
       <c r="D653" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B654" s="19" t="s">
         <v>18</v>
@@ -9654,12 +9660,12 @@
         <v>8391</v>
       </c>
       <c r="D654" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B655" s="19" t="s">
         <v>19</v>
@@ -9668,12 +9674,12 @@
         <v>8915</v>
       </c>
       <c r="D655" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B656" s="19" t="s">
         <v>20</v>
@@ -9682,12 +9688,12 @@
         <v>9439</v>
       </c>
       <c r="D656" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B657" s="19" t="s">
         <v>21</v>
@@ -9696,12 +9702,12 @@
         <v>9963</v>
       </c>
       <c r="D657" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B658" s="19" t="s">
         <v>22</v>
@@ -9710,12 +9716,12 @@
         <v>10487</v>
       </c>
       <c r="D658" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B659" s="19" t="s">
         <v>23</v>
@@ -9724,12 +9730,12 @@
         <v>11010</v>
       </c>
       <c r="D659" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B660" s="19" t="s">
         <v>24</v>
@@ -9738,12 +9744,12 @@
         <v>11534</v>
       </c>
       <c r="D660" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B661" s="19" t="s">
         <v>25</v>
@@ -9752,12 +9758,12 @@
         <v>12058</v>
       </c>
       <c r="D661" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B662" s="19" t="s">
         <v>26</v>
@@ -9766,7 +9772,7 @@
         <v>12582</v>
       </c>
       <c r="D662" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9796,10 +9802,10 @@
   <dimension ref="A1:R652"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A660:A661 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.76"/>
@@ -9809,7 +9815,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -9817,7 +9823,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -9825,7 +9831,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -10169,10 +10175,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
@@ -10374,7 +10380,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>28</v>
@@ -10559,7 +10565,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>28</v>
@@ -10743,10 +10749,10 @@
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>9</v>
@@ -10923,7 +10929,7 @@
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B97" s="41" t="s">
         <v>28</v>
@@ -11117,7 +11123,7 @@
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B115" s="41" t="s">
         <v>28</v>
@@ -11311,7 +11317,7 @@
     </row>
     <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B133" s="41" t="s">
         <v>28</v>
@@ -11505,7 +11511,7 @@
     </row>
     <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B151" s="41" t="s">
         <v>28</v>
@@ -11699,7 +11705,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B169" s="41" t="s">
         <v>28</v>
@@ -11893,7 +11899,7 @@
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B187" s="41" t="s">
         <v>28</v>
@@ -12087,7 +12093,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B205" s="46" t="s">
         <v>28</v>
@@ -12281,7 +12287,7 @@
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B223" s="46" t="s">
         <v>28</v>
@@ -12475,7 +12481,7 @@
     </row>
     <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B241" s="46" t="s">
         <v>28</v>
@@ -12669,7 +12675,7 @@
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B259" s="46" t="s">
         <v>28</v>
@@ -12684,7 +12690,7 @@
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="16" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B260" s="46"/>
       <c r="C260" s="19" t="s">
@@ -12865,7 +12871,7 @@
     </row>
     <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B277" s="46" t="s">
         <v>28</v>
@@ -12880,7 +12886,7 @@
     </row>
     <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B278" s="46"/>
       <c r="C278" s="19" t="s">
@@ -13061,7 +13067,7 @@
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B295" s="46" t="s">
         <v>28</v>
@@ -13076,7 +13082,7 @@
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B296" s="46"/>
       <c r="C296" s="19" t="s">
@@ -13257,7 +13263,7 @@
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B313" s="46" t="s">
         <v>28</v>
@@ -13272,7 +13278,7 @@
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B314" s="46"/>
       <c r="C314" s="19" t="s">
@@ -13453,7 +13459,7 @@
     </row>
     <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B331" s="46" t="s">
         <v>28</v>
@@ -13468,7 +13474,7 @@
     </row>
     <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B332" s="46"/>
       <c r="C332" s="19" t="s">
@@ -13649,7 +13655,7 @@
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B349" s="46" t="s">
         <v>28</v>
@@ -13664,7 +13670,7 @@
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B350" s="46"/>
       <c r="C350" s="19" t="s">
@@ -13845,7 +13851,7 @@
     </row>
     <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B367" s="46" t="s">
         <v>28</v>
@@ -13860,7 +13866,7 @@
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B368" s="46"/>
       <c r="C368" s="19" t="s">
@@ -14041,7 +14047,7 @@
     </row>
     <row r="385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B385" s="46" t="s">
         <v>28</v>
@@ -14056,7 +14062,7 @@
     </row>
     <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B386" s="46"/>
       <c r="C386" s="19" t="s">
@@ -14237,7 +14243,7 @@
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B403" s="46" t="s">
         <v>28</v>
@@ -14252,7 +14258,7 @@
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B404" s="46"/>
       <c r="C404" s="19" t="s">
@@ -14433,7 +14439,7 @@
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B421" s="46" t="s">
         <v>28</v>
@@ -14448,7 +14454,7 @@
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B422" s="46"/>
       <c r="C422" s="19" t="s">
@@ -14629,7 +14635,7 @@
     </row>
     <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B439" s="46" t="s">
         <v>28</v>
@@ -14644,7 +14650,7 @@
     </row>
     <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B440" s="46"/>
       <c r="C440" s="19" t="s">
@@ -14825,7 +14831,7 @@
     </row>
     <row r="457" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B457" s="46" t="s">
         <v>28</v>
@@ -14840,7 +14846,7 @@
     </row>
     <row r="458" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B458" s="46"/>
       <c r="C458" s="19" t="s">
@@ -15021,7 +15027,7 @@
     </row>
     <row r="475" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B475" s="46" t="s">
         <v>28</v>
@@ -15036,7 +15042,7 @@
     </row>
     <row r="476" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B476" s="46"/>
       <c r="C476" s="19" t="s">
@@ -15217,7 +15223,7 @@
     </row>
     <row r="493" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B493" s="46" t="s">
         <v>28</v>
@@ -15232,7 +15238,7 @@
     </row>
     <row r="494" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B494" s="46"/>
       <c r="C494" s="19" t="s">
@@ -15413,7 +15419,7 @@
     </row>
     <row r="511" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B511" s="46" t="s">
         <v>28</v>
@@ -15428,7 +15434,7 @@
     </row>
     <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B512" s="46"/>
       <c r="C512" s="19" t="s">
@@ -15609,7 +15615,7 @@
     </row>
     <row r="529" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B529" s="46" t="s">
         <v>28</v>
@@ -15624,7 +15630,7 @@
     </row>
     <row r="530" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B530" s="46"/>
       <c r="C530" s="19" t="s">
@@ -15805,7 +15811,7 @@
     </row>
     <row r="547" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B547" s="46" t="s">
         <v>28</v>
@@ -15820,7 +15826,7 @@
     </row>
     <row r="548" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B548" s="46"/>
       <c r="C548" s="19" t="s">
@@ -16001,7 +16007,7 @@
     </row>
     <row r="565" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B565" s="46" t="s">
         <v>28</v>
@@ -16016,7 +16022,7 @@
     </row>
     <row r="566" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B566" s="46"/>
       <c r="C566" s="19" t="s">
@@ -16194,7 +16200,7 @@
     </row>
     <row r="582" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B582" s="46" t="s">
         <v>28</v>
@@ -16209,7 +16215,7 @@
     </row>
     <row r="583" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B583" s="46"/>
       <c r="C583" s="19" t="s">
@@ -16390,7 +16396,7 @@
     </row>
     <row r="600" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B600" s="46" t="s">
         <v>28</v>
@@ -16405,7 +16411,7 @@
     </row>
     <row r="601" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B601" s="46"/>
       <c r="C601" s="19" t="s">
@@ -16586,7 +16592,7 @@
     </row>
     <row r="618" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B618" s="46" t="s">
         <v>28</v>
@@ -16601,7 +16607,7 @@
     </row>
     <row r="619" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B619" s="46"/>
       <c r="C619" s="19" t="s">
@@ -16782,7 +16788,7 @@
     </row>
     <row r="636" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B636" s="46" t="s">
         <v>28</v>
@@ -16797,7 +16803,7 @@
     </row>
     <row r="637" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B637" s="46"/>
       <c r="C637" s="19" t="s">
